--- a/data/sheets/Diversifieds Colour.xlsx
+++ b/data/sheets/Diversifieds Colour.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA86C6B2-8F8B-4D4B-A960-D8CBE532EF75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4BD955-C0BD-492B-A6A3-C812363FD293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{61CC9A7E-75C1-4872-9D5D-C92BB1CCC49C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45535BF3-415A-4919-89D7-9A4B0E9DCCA8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Diversifieds Colour" sheetId="2" r:id="rId1"/>
+    <sheet name="Diversifieds Colour" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -122,14 +121,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -257,48 +249,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{F62F62AC-1EAC-4BD8-95BE-56D8E87B81FA}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{91AAC6D0-BE77-4D96-B81B-645720D7E5CC}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -929,7 +919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60707961-1833-434C-8DEB-D6B7A96414A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6B349C-864B-4F12-8B3D-1A313F656B11}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -940,7 +930,7 @@
       <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
@@ -950,7 +940,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="2">
         <v>0.2</v>
       </c>
@@ -964,7 +954,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -978,13 +968,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1005,7 +995,7 @@
         <v>-1.6390122589599026E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1026,7 +1016,7 @@
         <v>-0.45129642760855382</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1037,7 @@
         <v>-0.36161025435717958</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1058,7 @@
         <v>-0.56386454413173182</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1089,7 +1079,7 @@
         <v>-0.7175292589542468</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
